--- a/Appl5_21_001.xlsx
+++ b/Appl5_21_001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/validation_21_02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_validation_21_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{A239BDBB-B1B7-4F0C-A978-27CD1F70294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7623E3DC-BD4D-46ED-BB4B-552DCC605459}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{A239BDBB-B1B7-4F0C-A978-27CD1F70294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0284BAC-0ECA-47F9-9D26-EA3B888E44C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="897" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_info" sheetId="2" r:id="rId1"/>
@@ -1181,9 +1181,6 @@
     <t>ADTS_APCRCDWkUpdas</t>
   </si>
   <si>
-    <t>Saurabh</t>
-  </si>
-  <si>
     <t>Document Name: arxml</t>
   </si>
   <si>
@@ -1422,6 +1419,9 @@
   </si>
   <si>
     <t>IRDT Elements Short Name / Array Size</t>
+  </si>
+  <si>
+    <t>9Saurabh</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1722,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1845,12 +1845,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1858,10 +1852,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1913,6 +1903,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1988,10 +1987,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2263,156 +2258,156 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="8"/>
+    <col min="5" max="6" width="15.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
+    <row r="2" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="C3" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="2:9" s="9" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="16"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="62" t="s">
+    <row r="12" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="2:9" s="9" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2457,30 +2452,32 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="49.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="111.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="20.88671875" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="49.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="111.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="20.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
@@ -2523,27 +2520,27 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="E2" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="E2" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="67" t="s">
-        <v>344</v>
+      <c r="G2" s="66" t="s">
+        <v>343</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>26</v>
@@ -2562,25 +2559,25 @@
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>372</v>
       </c>
       <c r="J3" s="31" t="b">
         <v>0</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>33</v>
@@ -2589,16 +2586,16 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="31" t="s">
         <v>29</v>
       </c>
@@ -2616,16 +2613,16 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="37" t="s">
         <v>31</v>
       </c>
@@ -2645,43 +2642,43 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F14" s="25"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" s="25"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" s="25"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2696,41 +2693,41 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F24" s="25"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="F2:F5"/>
@@ -2794,25 +2791,25 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="1" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
@@ -2841,7 +2838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2855,22 +2852,22 @@
         <v>144</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -2890,16 +2887,16 @@
         <v>31</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -2919,16 +2916,16 @@
         <v>31</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2948,16 +2945,16 @@
         <v>31</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2977,16 +2974,16 @@
         <v>31</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -3006,16 +3003,16 @@
         <v>31</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -3035,16 +3032,16 @@
         <v>31</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -3064,10 +3061,10 @@
         <v>31</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>121</v>
@@ -3129,23 +3126,23 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.6640625" style="38" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.7109375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="38" customWidth="1"/>
     <col min="12" max="12" width="12" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="38"/>
+    <col min="13" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
@@ -3183,27 +3180,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="74" t="s">
-        <v>360</v>
+      <c r="E2" s="73" t="s">
+        <v>359</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H2" s="43" t="s">
         <v>54</v>
@@ -3215,19 +3212,19 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="40">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>54</v>
@@ -3239,19 +3236,19 @@
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>54</v>
@@ -3263,19 +3260,19 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>4</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H5" s="43" t="s">
         <v>54</v>
@@ -3287,19 +3284,19 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>54</v>
@@ -3311,7 +3308,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -3325,13 +3322,13 @@
         <v>56</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>58</v>
@@ -3343,27 +3340,27 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>7</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="74" t="s">
-        <v>362</v>
+      <c r="E8" s="73" t="s">
+        <v>361</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>54</v>
@@ -3375,19 +3372,19 @@
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>8</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>54</v>
@@ -3399,19 +3396,19 @@
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
     </row>
-    <row r="10" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>54</v>
@@ -3423,19 +3420,19 @@
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>10</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>54</v>
@@ -3447,19 +3444,19 @@
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>11</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>54</v>
@@ -3471,7 +3468,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -3485,13 +3482,13 @@
         <v>146</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>58</v>
@@ -3503,27 +3500,27 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>1</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="74" t="s">
+      <c r="F14" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="G14" s="31" t="s">
         <v>376</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>377</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>54</v>
@@ -3535,17 +3532,17 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>2</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>54</v>
@@ -3557,17 +3554,17 @@
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
     </row>
-    <row r="16" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>3</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>54</v>
@@ -3579,17 +3576,17 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>4</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>54</v>
@@ -3601,17 +3598,17 @@
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>5</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>54</v>
@@ -3623,27 +3620,27 @@
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>1</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="D19" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="74" t="s">
+      <c r="F19" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>384</v>
-      </c>
       <c r="G19" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>54</v>
@@ -3655,17 +3652,17 @@
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>2</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="76"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>54</v>
@@ -3677,19 +3674,19 @@
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>3</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75" t="s">
-        <v>385</v>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74" t="s">
+        <v>384</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H21" s="43" t="s">
         <v>54</v>
@@ -3701,17 +3698,17 @@
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
     </row>
-    <row r="22" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>4</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="77"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="76"/>
       <c r="G22" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>54</v>
@@ -3723,17 +3720,17 @@
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
     </row>
-    <row r="23" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>5</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="76"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>54</v>
@@ -3745,27 +3742,27 @@
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
     </row>
-    <row r="24" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="73" t="s">
         <v>386</v>
       </c>
-      <c r="D24" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="74" t="s">
+      <c r="F24" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="F24" s="75" t="s">
-        <v>388</v>
-      </c>
       <c r="G24" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>54</v>
@@ -3777,17 +3774,17 @@
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
     </row>
-    <row r="25" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>2</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="76"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H25" s="43" t="s">
         <v>54</v>
@@ -3799,19 +3796,19 @@
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
     </row>
-    <row r="26" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>3</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75" t="s">
-        <v>389</v>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>54</v>
@@ -3823,17 +3820,17 @@
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>4</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="76"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H27" s="43" t="s">
         <v>54</v>
@@ -3912,23 +3909,23 @@
       <selection activeCell="C6" sqref="C6:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="38" customWidth="1"/>
     <col min="4" max="4" width="29" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="29" style="38" customWidth="1"/>
-    <col min="13" max="13" width="34.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="38"/>
+    <col min="13" max="13" width="34.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
@@ -3969,8 +3966,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -3985,8 +3982,8 @@
       <c r="E2" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="41" t="s">
         <v>268</v>
       </c>
@@ -4006,8 +4003,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="40">
         <v>3</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -4022,8 +4019,8 @@
       <c r="E3" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="41" t="s">
         <v>75</v>
       </c>
@@ -4043,237 +4040,237 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="74">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="73">
         <v>1</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="40">
         <v>1</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="77">
         <v>0</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="77">
         <v>1</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="46">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="73"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="40">
         <v>0</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="73"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="46">
         <v>3</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="80">
         <v>0</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="80">
         <v>7</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="46">
+      <c r="B7" s="77"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="40">
         <v>0</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="74"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="H7" s="73"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="37"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="46">
+      <c r="B8" s="77"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="40">
         <v>1</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="74"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="H8" s="73"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="73"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="46">
+      <c r="B9" s="77"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="40">
         <v>2</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="74"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="H9" s="73"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="73"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="46">
+      <c r="B10" s="77"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="40">
         <v>4</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="73"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="73"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="46">
+      <c r="B11" s="77"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="40">
         <v>5</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="74"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="H11" s="73"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="73"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="46">
+      <c r="B12" s="77"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="40">
         <v>6</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="73"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="46">
+      <c r="B13" s="77"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="40">
         <v>7</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="74"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4356,132 +4353,132 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="38"/>
+    <col min="4" max="4" width="39.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>397</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>398</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="82">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="81" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <v>2</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" s="50">
+        <v>410</v>
+      </c>
+      <c r="D6" s="48">
         <v>15</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="50">
+        <v>411</v>
+      </c>
+      <c r="D7" s="48">
         <v>15</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4533,129 +4530,129 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="38"/>
+    <col min="3" max="3" width="47.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>419</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>420</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="81">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E3" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>415</v>
+      <c r="B6" s="37" t="s">
+        <v>414</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" s="50">
+        <v>410</v>
+      </c>
+      <c r="D6" s="48">
         <v>15</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>416</v>
+      <c r="B7" s="37" t="s">
+        <v>415</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="50">
+        <v>411</v>
+      </c>
+      <c r="D7" s="48">
         <v>15</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <v>4</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>418</v>
-      </c>
       <c r="D8" s="37"/>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="41" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4704,24 +4701,24 @@
       <selection activeCell="D33" sqref="D33:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="38"/>
+    <col min="1" max="1" width="4.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="38"/>
     <col min="10" max="10" width="22" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="38"/>
-    <col min="12" max="12" width="26.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="38"/>
+    <col min="11" max="11" width="8.85546875" style="38"/>
+    <col min="12" max="12" width="26.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
@@ -4741,7 +4738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>93</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>95</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>96</v>
@@ -4761,7 +4758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>97</v>
       </c>
@@ -4772,7 +4769,7 @@
         <v>99</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>100</v>
@@ -4781,7 +4778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>102</v>
       </c>
@@ -4789,7 +4786,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J5" s="37" t="s">
         <v>104</v>
@@ -4798,7 +4795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
@@ -4812,7 +4809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
         <v>109</v>
       </c>
@@ -4832,7 +4829,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
         <v>113</v>
       </c>
@@ -4840,7 +4837,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>70</v>
@@ -4852,7 +4849,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
         <v>117</v>
       </c>
@@ -4860,7 +4857,7 @@
         <v>118</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>119</v>
@@ -4872,7 +4869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
         <v>122</v>
       </c>
@@ -4889,7 +4886,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
         <v>126</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D12" s="37" t="s">
         <v>131</v>
       </c>
@@ -4926,7 +4923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D13" s="37" t="s">
         <v>135</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
         <v>41</v>
       </c>
@@ -4963,7 +4960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>50</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="s">
         <v>55</v>
       </c>
@@ -5003,7 +5000,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D17" s="39" t="s">
         <v>33</v>
       </c>
@@ -5020,7 +5017,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D18" s="37" t="s">
         <v>157</v>
       </c>
@@ -5034,7 +5031,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J19" s="37" t="s">
         <v>161</v>
       </c>
@@ -5042,7 +5039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J20" s="37" t="s">
         <v>162</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H21" s="34" t="s">
         <v>62</v>
       </c>
@@ -5061,7 +5058,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
         <v>35</v>
       </c>
@@ -5078,15 +5075,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
         <v>319</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>72</v>
@@ -5095,15 +5092,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="s">
         <v>320</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>169</v>
@@ -5112,15 +5109,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
         <v>321</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>171</v>
@@ -5129,12 +5126,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
         <v>322</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H26" s="37" t="s">
         <v>173</v>
@@ -5143,12 +5140,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="37" t="s">
         <v>323</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>64</v>
@@ -5160,7 +5157,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="37" t="s">
         <v>324</v>
       </c>
@@ -5174,7 +5171,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
         <v>325</v>
       </c>
@@ -5188,7 +5185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
         <v>326</v>
       </c>
@@ -5199,7 +5196,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H31" s="37" t="s">
         <v>183</v>
       </c>
@@ -5207,722 +5204,722 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J32" s="37" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J34" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J35" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D36" s="37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J36" s="37" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>398</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>399</v>
       </c>
       <c r="J37" s="37" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J38" s="37" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J39" s="37" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J40" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J41" s="37" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J42" s="37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J43" s="37" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J44" s="37" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J45" s="37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J46" s="37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J47" s="37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J48" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="37" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="37" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="37" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="37" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" s="37" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" s="37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="37" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" s="37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="37" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" s="37" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" s="37" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" s="37" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" s="37" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" s="37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" s="37" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" s="37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" s="37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" s="37" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" s="37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" s="37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71" s="37" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72" s="37" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J73" s="37" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J74" s="37" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J75" s="37" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J76" s="37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J77" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J78" s="37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J79" s="37" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J80" s="37" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J81" s="37" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J82" s="37" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J83" s="37" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84" s="37" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J85" s="37" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J86" s="37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J87" s="37" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J88" s="37" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J89" s="37" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J90" s="37" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91" s="37" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J92" s="37" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J93" s="37" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J94" s="37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J95" s="37" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J96" s="37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J97" s="37" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J98" s="37" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J99" s="37" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J100" s="37" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J101" s="37" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J102" s="37" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J103" s="37" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J104" s="37" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J105" s="37" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J106" s="37" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J107" s="37" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J108" s="37" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J109" s="37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J110" s="37" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J111" s="37" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J112" s="37" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113" s="37" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114" s="37" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115" s="37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J116" s="37" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J117" s="37" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J118" s="37" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J119" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J120" s="37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J121" s="37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J122" s="37" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J123" s="37" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J124" s="37" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J125" s="37" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J126" s="37" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J127" s="37" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J128" s="37" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J129" s="37" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J130" s="37" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J131" s="37" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J132" s="37" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J133" s="37" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J134" s="37" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J135" s="37" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J136" s="37" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J137" s="37" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J138" s="37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J139" s="37" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J140" s="37" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J141" s="37" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J142" s="37" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J143" s="37" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J144" s="37" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J145" s="37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J146" s="37" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J147" s="37" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J148" s="37" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J149" s="37" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J150" s="37" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J151" s="37" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J152" s="37" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J153" s="37" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J154" s="37" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J155" s="37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J156" s="37" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J157" s="37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J158" s="37" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J159" s="37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J160" s="37" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J161" s="37" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J162" s="37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J163" s="37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J164" s="37" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J165" s="37" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J166" s="37" t="s">
         <v>318</v>
       </c>
@@ -5942,6 +5939,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">2e979fb4-19d2-4732-b9f5-97bab4c36228</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
+</titus>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
@@ -5958,7 +5962,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5967,7 +5971,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c36ae600cfc71a682facb2fe9ea4a9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efc49a46b45dba0aa538c93634f147fb" ns2:_="">
     <xsd:import namespace="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
@@ -6165,14 +6169,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">5ede4b02-e839-4aa9-9eb6-7fb190b749e3</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
-</titus>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FB65A-AA4A-4AC7-ABF5-73D99F3CD624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6182,7 +6188,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6190,7 +6196,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18647F7B-AB5F-435B-9FBB-244B71312A6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6206,13 +6212,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>